--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
@@ -549,10 +549,10 @@
         <v>5.064119</v>
       </c>
       <c r="I2">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J2">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4475095</v>
+        <v>30.7693535</v>
       </c>
       <c r="N2">
-        <v>58.895019</v>
+        <v>61.538707</v>
       </c>
       <c r="O2">
-        <v>0.1188040616343075</v>
+        <v>0.1179731387858698</v>
       </c>
       <c r="P2">
-        <v>0.08432571340736818</v>
+        <v>0.08351747770158975</v>
       </c>
       <c r="Q2">
-        <v>49.7085641205435</v>
+        <v>51.93988922568883</v>
       </c>
       <c r="R2">
-        <v>298.251384723261</v>
+        <v>311.639335354133</v>
       </c>
       <c r="S2">
-        <v>0.1002052622435118</v>
+        <v>0.1055888613792811</v>
       </c>
       <c r="T2">
-        <v>0.07112450626365148</v>
+        <v>0.07475019709178576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>5.064119</v>
       </c>
       <c r="I3">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J3">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>72.556906</v>
       </c>
       <c r="O3">
-        <v>0.09757537257289006</v>
+        <v>0.09273042782012855</v>
       </c>
       <c r="P3">
-        <v>0.1038867626663191</v>
+        <v>0.09847086613229204</v>
       </c>
       <c r="Q3">
         <v>40.82631180620155</v>
@@ -641,10 +641,10 @@
         <v>367.436806255814</v>
       </c>
       <c r="S3">
-        <v>0.08229992866128832</v>
+        <v>0.08299601408853706</v>
       </c>
       <c r="T3">
-        <v>0.08762326938494019</v>
+        <v>0.08813384759400572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>5.064119</v>
       </c>
       <c r="I4">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J4">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>73.143293</v>
+        <v>81.77185533333333</v>
       </c>
       <c r="N4">
-        <v>219.429879</v>
+        <v>245.315566</v>
       </c>
       <c r="O4">
-        <v>0.2950918579280266</v>
+        <v>0.3135224286729781</v>
       </c>
       <c r="P4">
-        <v>0.3141790494976744</v>
+        <v>0.3329309033622996</v>
       </c>
       <c r="Q4">
-        <v>123.4687799346223</v>
+        <v>138.0341354195949</v>
       </c>
       <c r="R4">
-        <v>1111.219019411601</v>
+        <v>1242.307218776354</v>
       </c>
       <c r="S4">
-        <v>0.2488951690946569</v>
+        <v>0.280610286385054</v>
       </c>
       <c r="T4">
-        <v>0.2649942570418016</v>
+        <v>0.2979813486848688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>5.064119</v>
       </c>
       <c r="I5">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J5">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.72803</v>
+        <v>14.8441875</v>
       </c>
       <c r="N5">
-        <v>31.45606</v>
+        <v>29.688375</v>
       </c>
       <c r="O5">
-        <v>0.06345371398916563</v>
+        <v>0.05691427322647431</v>
       </c>
       <c r="P5">
-        <v>0.04503869334832845</v>
+        <v>0.04029168498874919</v>
       </c>
       <c r="Q5">
-        <v>26.54953851852333</v>
+        <v>25.0575773194375</v>
       </c>
       <c r="R5">
-        <v>159.29723111114</v>
+        <v>150.345463916625</v>
       </c>
       <c r="S5">
-        <v>0.05352002249031688</v>
+        <v>0.0509396746417034</v>
       </c>
       <c r="T5">
-        <v>0.03798787697988173</v>
+        <v>0.03606204924950479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>5.064119</v>
       </c>
       <c r="I6">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J6">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.91393266666667</v>
+        <v>53.27148833333334</v>
       </c>
       <c r="N6">
-        <v>68.741798</v>
+        <v>159.814465</v>
       </c>
       <c r="O6">
-        <v>0.09244477088342698</v>
+        <v>0.2042488376129897</v>
       </c>
       <c r="P6">
-        <v>0.09842430235492741</v>
+        <v>0.2168927763956593</v>
       </c>
       <c r="Q6">
-        <v>38.67962726066244</v>
+        <v>89.92438540903723</v>
       </c>
       <c r="R6">
-        <v>348.116645345962</v>
+        <v>809.319468681335</v>
       </c>
       <c r="S6">
-        <v>0.07797252368297916</v>
+        <v>0.1828077342312806</v>
       </c>
       <c r="T6">
-        <v>0.08301595831772572</v>
+        <v>0.1941243704855271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>5.064119</v>
       </c>
       <c r="I7">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J7">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.44778433333333</v>
+        <v>55.97408466666666</v>
       </c>
       <c r="N7">
-        <v>247.343353</v>
+        <v>167.922254</v>
       </c>
       <c r="O7">
-        <v>0.332630222992183</v>
+        <v>0.2146108938815595</v>
       </c>
       <c r="P7">
-        <v>0.3541454787253825</v>
+        <v>0.22789629141941</v>
       </c>
       <c r="Q7">
-        <v>139.1751303834452</v>
+        <v>94.48647522269177</v>
       </c>
       <c r="R7">
-        <v>1252.576173451007</v>
+        <v>850.3782770042259</v>
       </c>
       <c r="S7">
-        <v>0.2805568956695019</v>
+        <v>0.1920820295005812</v>
       </c>
       <c r="T7">
-        <v>0.2987039338542544</v>
+        <v>0.2039727871207451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H8">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I8">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J8">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4475095</v>
+        <v>30.7693535</v>
       </c>
       <c r="N8">
-        <v>58.895019</v>
+        <v>61.538707</v>
       </c>
       <c r="O8">
-        <v>0.1188040616343075</v>
+        <v>0.1179731387858698</v>
       </c>
       <c r="P8">
-        <v>0.08432571340736818</v>
+        <v>0.08351747770158975</v>
       </c>
       <c r="Q8">
-        <v>6.150102543238501</v>
+        <v>5.3985753796355</v>
       </c>
       <c r="R8">
-        <v>36.90061525943101</v>
+        <v>32.391452277813</v>
       </c>
       <c r="S8">
-        <v>0.01239771554606241</v>
+        <v>0.01097479097286952</v>
       </c>
       <c r="T8">
-        <v>0.008799751402955691</v>
+        <v>0.00776945387559717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H9">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I9">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J9">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>72.556906</v>
       </c>
       <c r="O9">
-        <v>0.09757537257289006</v>
+        <v>0.09273042782012855</v>
       </c>
       <c r="P9">
-        <v>0.1038867626663191</v>
+        <v>0.09847086613229204</v>
       </c>
       <c r="Q9">
-        <v>5.051161877488223</v>
+        <v>4.243442276139334</v>
       </c>
       <c r="R9">
-        <v>45.460456897394</v>
+        <v>38.190980485254</v>
       </c>
       <c r="S9">
-        <v>0.0101824104059959</v>
+        <v>0.008626515091692806</v>
       </c>
       <c r="T9">
-        <v>0.01084103114675324</v>
+        <v>0.009160535896911834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H10">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I10">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J10">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>73.143293</v>
+        <v>81.77185533333333</v>
       </c>
       <c r="N10">
-        <v>219.429879</v>
+        <v>245.315566</v>
       </c>
       <c r="O10">
-        <v>0.2950918579280266</v>
+        <v>0.3135224286729781</v>
       </c>
       <c r="P10">
-        <v>0.3141790494976744</v>
+        <v>0.3329309033622996</v>
       </c>
       <c r="Q10">
-        <v>15.27595236195233</v>
+        <v>14.34711733379933</v>
       </c>
       <c r="R10">
-        <v>137.483571257571</v>
+        <v>129.124056004194</v>
       </c>
       <c r="S10">
-        <v>0.03079410639858349</v>
+        <v>0.02916632680459338</v>
       </c>
       <c r="T10">
-        <v>0.03278593705149577</v>
+        <v>0.03097185605480813</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H11">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I11">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J11">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.72803</v>
+        <v>14.8441875</v>
       </c>
       <c r="N11">
-        <v>31.45606</v>
+        <v>29.688375</v>
       </c>
       <c r="O11">
-        <v>0.06345371398916563</v>
+        <v>0.05691427322647431</v>
       </c>
       <c r="P11">
-        <v>0.04503869334832845</v>
+        <v>0.04029168498874919</v>
       </c>
       <c r="Q11">
-        <v>3.284793822823334</v>
+        <v>2.6044572294375</v>
       </c>
       <c r="R11">
-        <v>19.70876293694</v>
+        <v>15.626743376625</v>
       </c>
       <c r="S11">
-        <v>0.006621668363497294</v>
+        <v>0.005294614167781673</v>
       </c>
       <c r="T11">
-        <v>0.004699981642190461</v>
+        <v>0.0037482500274816</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H12">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I12">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J12">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.91393266666667</v>
+        <v>53.27148833333334</v>
       </c>
       <c r="N12">
-        <v>68.741798</v>
+        <v>159.814465</v>
       </c>
       <c r="O12">
-        <v>0.09244477088342698</v>
+        <v>0.2042488376129897</v>
       </c>
       <c r="P12">
-        <v>0.09842430235492741</v>
+        <v>0.2168927763956593</v>
       </c>
       <c r="Q12">
-        <v>4.785567199455778</v>
+        <v>9.346642442548333</v>
       </c>
       <c r="R12">
-        <v>43.070104795102</v>
+        <v>84.11978198293501</v>
       </c>
       <c r="S12">
-        <v>0.009647010021100789</v>
+        <v>0.01900083631175386</v>
       </c>
       <c r="T12">
-        <v>0.01027099988527377</v>
+        <v>0.02017707512884108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H13">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I13">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J13">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.44778433333333</v>
+        <v>55.97408466666666</v>
       </c>
       <c r="N13">
-        <v>247.343353</v>
+        <v>167.922254</v>
       </c>
       <c r="O13">
-        <v>0.332630222992183</v>
+        <v>0.2146108938815595</v>
       </c>
       <c r="P13">
-        <v>0.3541454787253825</v>
+        <v>0.22789629141941</v>
       </c>
       <c r="Q13">
-        <v>17.21919227542189</v>
+        <v>9.820821077020666</v>
       </c>
       <c r="R13">
-        <v>154.972730478797</v>
+        <v>88.38738969318599</v>
       </c>
       <c r="S13">
-        <v>0.0347113964788013</v>
+        <v>0.01996479643663516</v>
       </c>
       <c r="T13">
-        <v>0.03695660608537225</v>
+        <v>0.02120070880168659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H14">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I14">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J14">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.4475095</v>
+        <v>30.7693535</v>
       </c>
       <c r="N14">
-        <v>58.895019</v>
+        <v>61.538707</v>
       </c>
       <c r="O14">
-        <v>0.1188040616343075</v>
+        <v>0.1179731387858698</v>
       </c>
       <c r="P14">
-        <v>0.08432571340736818</v>
+        <v>0.08351747770158975</v>
       </c>
       <c r="Q14">
-        <v>3.0761555532255</v>
+        <v>0.6933360988666667</v>
       </c>
       <c r="R14">
-        <v>18.456933319353</v>
+        <v>4.1600165932</v>
       </c>
       <c r="S14">
-        <v>0.00620108384473339</v>
+        <v>0.001409486433719153</v>
       </c>
       <c r="T14">
-        <v>0.004401455740761018</v>
+        <v>0.0009978267342068221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H15">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I15">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J15">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>72.556906</v>
       </c>
       <c r="O15">
-        <v>0.09757537257289006</v>
+        <v>0.09273042782012855</v>
       </c>
       <c r="P15">
-        <v>0.1038867626663191</v>
+        <v>0.09847086613229204</v>
       </c>
       <c r="Q15">
-        <v>2.526487900069111</v>
+        <v>0.5449829828444445</v>
       </c>
       <c r="R15">
-        <v>22.738391100622</v>
+        <v>4.904846845599999</v>
       </c>
       <c r="S15">
-        <v>0.005093033505605845</v>
+        <v>0.001107898639898688</v>
       </c>
       <c r="T15">
-        <v>0.005422462134625637</v>
+        <v>0.001176482641374499</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H16">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I16">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J16">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>73.143293</v>
+        <v>81.77185533333333</v>
       </c>
       <c r="N16">
-        <v>219.429879</v>
+        <v>245.315566</v>
       </c>
       <c r="O16">
-        <v>0.2950918579280266</v>
+        <v>0.3135224286729781</v>
       </c>
       <c r="P16">
-        <v>0.3141790494976744</v>
+        <v>0.3329309033622996</v>
       </c>
       <c r="Q16">
-        <v>7.640719054463666</v>
+        <v>1.842592473511111</v>
       </c>
       <c r="R16">
-        <v>68.76647149017299</v>
+        <v>16.5833322616</v>
       </c>
       <c r="S16">
-        <v>0.01540258243478624</v>
+        <v>0.003745815483330792</v>
       </c>
       <c r="T16">
-        <v>0.01639885540437716</v>
+        <v>0.003977698622622638</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H17">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I17">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J17">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.72803</v>
+        <v>14.8441875</v>
       </c>
       <c r="N17">
-        <v>31.45606</v>
+        <v>29.688375</v>
       </c>
       <c r="O17">
-        <v>0.06345371398916563</v>
+        <v>0.05691427322647431</v>
       </c>
       <c r="P17">
-        <v>0.04503869334832845</v>
+        <v>0.04029168498874919</v>
       </c>
       <c r="Q17">
-        <v>1.642986712536667</v>
+        <v>0.334489025</v>
       </c>
       <c r="R17">
-        <v>9.85792027522</v>
+        <v>2.00693415</v>
       </c>
       <c r="S17">
-        <v>0.003312023135351467</v>
+        <v>0.0006799844169892433</v>
       </c>
       <c r="T17">
-        <v>0.002350834726256273</v>
+        <v>0.0004813857117628009</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H18">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I18">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J18">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.91393266666667</v>
+        <v>53.27148833333334</v>
       </c>
       <c r="N18">
-        <v>68.741798</v>
+        <v>159.814465</v>
       </c>
       <c r="O18">
-        <v>0.09244477088342698</v>
+        <v>0.2042488376129897</v>
       </c>
       <c r="P18">
-        <v>0.09842430235492741</v>
+        <v>0.2168927763956593</v>
       </c>
       <c r="Q18">
-        <v>2.393642872202889</v>
+        <v>1.200384203777778</v>
       </c>
       <c r="R18">
-        <v>21.542785849826</v>
+        <v>10.803457834</v>
       </c>
       <c r="S18">
-        <v>0.004825237179347046</v>
+        <v>0.002440267069955222</v>
       </c>
       <c r="T18">
-        <v>0.005137344151927928</v>
+        <v>0.002591330781291204</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H19">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I19">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J19">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.44778433333333</v>
+        <v>55.97408466666666</v>
       </c>
       <c r="N19">
-        <v>247.343353</v>
+        <v>167.922254</v>
       </c>
       <c r="O19">
-        <v>0.332630222992183</v>
+        <v>0.2146108938815595</v>
       </c>
       <c r="P19">
-        <v>0.3541454787253825</v>
+        <v>0.22789629141941</v>
       </c>
       <c r="Q19">
-        <v>8.612687929623444</v>
+        <v>1.261282707822222</v>
       </c>
       <c r="R19">
-        <v>77.51419136661099</v>
+        <v>11.3515443704</v>
       </c>
       <c r="S19">
-        <v>0.01736193084387989</v>
+        <v>0.00256406794434319</v>
       </c>
       <c r="T19">
-        <v>0.01848493878575587</v>
+        <v>0.002722795496978324</v>
       </c>
     </row>
   </sheetData>
